--- a/medicine/Médecine vétérinaire/Jacques_Rennes/Jacques_Rennes.xlsx
+++ b/medicine/Médecine vétérinaire/Jacques_Rennes/Jacques_Rennes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques Rennes est un vétérinaire, philosophe et syndicaliste français, né le 9 octobre 1875 à Saintes (Charente-Inférieure) et mort le 3 août 1970 à Paris 14e[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Rennes est un vétérinaire, philosophe et syndicaliste français, né le 9 octobre 1875 à Saintes (Charente-Inférieure) et mort le 3 août 1970 à Paris 14e.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir été diplômé l'école nationale vétérinaire d'Alfort, Jacques Rennes fait son service militaire comme officier à Saumur et part trois ans en Algérie du Sud. 
 Il devient ensuite directeur des services vétérinaires de la Somme, puis de la Seine-et-Oise. Il écrit plusieurs ouvrages de référence pour prévenir les maladies dues à une mauvaise hygiène dans les zones rurales.
-Il a par ailleurs contribué à la définition de la notion d’action directe (sur le plan du syndicalisme) : c'est pour lui l’expression éthique et héroïque "du prolétariat révolutionnaire". Il attribue à l’action la primauté sur la pensée. Il appelle à la rescousse Proudhon - prolétaire né mais penseur - et Sorel - bourgeois intellectuel mais clairvoyant - afin de donner corps à sa démonstration. Par là, il les classe, l’un comme moniteur, et l’autre comme serviteur désintéressé...du prolétariat. Faisant siens, les écrits de Emile Pouget et Victor Griffuelhes, relatifs à l’action directe, Jacques Rennes écrit, à la suite de Maxime Leroy, que « l’action directe n’est pas seulement un acte de combat corps à corps, mais un acte de construction, un acte institutionnel (...) l’action directe s’étend ainsi de la grève à la création de bibliothèques populaires (...) parmi cent autres institutions. ». Jacques Rennes assigne, par ailleurs, d’autres dimensions à l’action directe. Ainsi la lutte contre le militarisme, le sabotage - la ruse substituée à la violence -, le boycottage sont-ils considérés comme les contenus révolutionnaires de l’action ouvrière en marche. Jacques Rennes, fidèle à l’essence de la Charte d'Amiens attribue au syndicalisme le rôle moteur dans la transformation de la société. Il décrit l’action directe comme « le procédé de commencement, de développement et de fin du syndicalisme »[2].
+Il a par ailleurs contribué à la définition de la notion d’action directe (sur le plan du syndicalisme) : c'est pour lui l’expression éthique et héroïque "du prolétariat révolutionnaire". Il attribue à l’action la primauté sur la pensée. Il appelle à la rescousse Proudhon - prolétaire né mais penseur - et Sorel - bourgeois intellectuel mais clairvoyant - afin de donner corps à sa démonstration. Par là, il les classe, l’un comme moniteur, et l’autre comme serviteur désintéressé...du prolétariat. Faisant siens, les écrits de Emile Pouget et Victor Griffuelhes, relatifs à l’action directe, Jacques Rennes écrit, à la suite de Maxime Leroy, que « l’action directe n’est pas seulement un acte de combat corps à corps, mais un acte de construction, un acte institutionnel (...) l’action directe s’étend ainsi de la grève à la création de bibliothèques populaires (...) parmi cent autres institutions. ». Jacques Rennes assigne, par ailleurs, d’autres dimensions à l’action directe. Ainsi la lutte contre le militarisme, le sabotage - la ruse substituée à la violence -, le boycottage sont-ils considérés comme les contenus révolutionnaires de l’action ouvrière en marche. Jacques Rennes, fidèle à l’essence de la Charte d'Amiens attribue au syndicalisme le rôle moteur dans la transformation de la société. Il décrit l’action directe comme « le procédé de commencement, de développement et de fin du syndicalisme ».
 Jacques Rennes a également écrit quelques ouvrages de qualité sur le voyage.
 Jacques Rennes est le gendre du botaniste et politique Georges Le Monnier, le beau-frère du Professeur Philibert Guinier et l'oncle du scientifique André Guinier.
 </t>
@@ -546,7 +560,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(Liste non exhaustive)
 Georges Sorel et le syndicalisme révolutionnaire, 1936, Éditions Liberté.
